--- a/Run/result.xlsx
+++ b/Run/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Transposed</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>-n4000</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>GCC  5.4.0, -O3</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,6 +113,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -372,11 +381,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="660605904"/>
-        <c:axId val="660597744"/>
+        <c:axId val="940267440"/>
+        <c:axId val="940268528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="660605904"/>
+        <c:axId val="940267440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +428,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660597744"/>
+        <c:crossAx val="940268528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -427,7 +436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660597744"/>
+        <c:axId val="940268528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +487,437 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660605904"/>
+        <c:crossAx val="940267440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Matrix Multiplication, GCC 5.4.0, -O3, SSE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-n2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Transposed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE sdot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SSE+tiling sdot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdot with hints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdot w/o hints</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8280000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-n4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Transposed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE sdot</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SSE+tiling sdot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>sdot with hints</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>sdot w/o hints</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eigen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>61.843000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.329000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2030000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="940265264"/>
+        <c:axId val="940269072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="940265264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940269072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="940269072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940265264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,7 +1038,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1129,6 +2111,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1400,25 +2414,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -1517,6 +2531,135 @@
       <c r="E8" s="1">
         <v>6.6150000000000002</v>
       </c>
+    </row>
+    <row r="24" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="E26" s="4">
+        <v>61.843000000000004</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2.2959999999999998</v>
+      </c>
+      <c r="E27" s="4">
+        <v>19.577999999999999</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>11.781000000000001</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="E29" s="4">
+        <v>27.577999999999999</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7.8280000000000003</v>
+      </c>
+      <c r="E30" s="4">
+        <v>60.329000000000001</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5.2030000000000003</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
